--- a/biology/Botanique/Nepenthes_spectabilis/Nepenthes_spectabilis.xlsx
+++ b/biology/Botanique/Nepenthes_spectabilis/Nepenthes_spectabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nepenthes spectabilis /nɨˈpɛnθiːz spɛkˈtæbɨlɪs/ est une espècede plantes carnivores endémique de Sumatra, et qui pousse entre 1400 et 2 200 m d'altitude. Nepenthes désigne les plantes avec un piège passif, qui piègent leurs victimes, et spectabilis vient du latin visible, remarquable.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius August Lörzing est le premier à découvrir et décrire la plante le 5 juin 1920. Les premiers spécimens ont été récoltés le 5 juin 1920, sur le Mont Sibajak entre 1 800 et 1 900 m d'altitude. Les exemplaires sont actuellement au Jardin botanique de Bogor, avec des  isotypes, mâle et femelle. 
 Un autre spécimen est disponible dans l'Herbier national des Pays-Bas d'Utrecht.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Nepenthes spectabilis est une plante grimpante. La tige principale mesure jusqu'à 6 m et 7 mm de diamètre. Les nœuds sont cylindriques avec une section en croix et atteignent 10 cm .
 Les feuilles sont coriaces et sans pédoncule.
@@ -580,7 +596,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est endémique d'Aceh et du nord de Sumatra. Elle est répartie géographiquement entre 1 400 et 2 200 m d'altitude, au sud du lac Toba, et aux monts Kemili.
 </t>
